--- a/Tool/ExeclToScript/Work/TransXlsxTable/PhysicsCollider.xlsx
+++ b/Tool/ExeclToScript/Work/TransXlsxTable/PhysicsCollider.xlsx
@@ -108,7 +108,7 @@
     <t>墙体会使用本ID</t>
   </si>
   <si>
-    <t>{Width:2.5,Height:0.02}</t>
+    <t>{Width:2.5,Height:0.05}</t>
   </si>
   <si>
     <t>城墙.碰撞器</t>
@@ -117,7 +117,7 @@
     <t>老旧破落的城墙，却守护者城内百姓的安宁</t>
   </si>
   <si>
-    <t>{Width:0.02,Height:5}</t>
+    <t>{Width:0.05,Height:5}</t>
   </si>
   <si>
     <t>勇士.碰撞器</t>
@@ -1120,7 +1120,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/Tool/ExeclToScript/Work/TransXlsxTable/PhysicsCollider.xlsx
+++ b/Tool/ExeclToScript/Work/TransXlsxTable/PhysicsCollider.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="199">
   <si>
     <t>Key</t>
   </si>
@@ -35,12 +35,15 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Desc</t>
   </si>
   <si>
+    <t>TempType</t>
+  </si>
+  <si>
+    <t>SubType</t>
+  </si>
+  <si>
     <t>Shape</t>
   </si>
   <si>
@@ -50,6 +53,27 @@
     <t>Size</t>
   </si>
   <si>
+    <t>OwnerChartlet</t>
+  </si>
+  <si>
+    <t>ChartletAngle</t>
+  </si>
+  <si>
+    <t>ChartletImg</t>
+  </si>
+  <si>
+    <t>OwnerSpine</t>
+  </si>
+  <si>
+    <t>SpinePath</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t>SpineScale</t>
+  </si>
+  <si>
     <t>字段描述</t>
   </si>
   <si>
@@ -59,15 +83,52 @@
     <t>名称</t>
   </si>
   <si>
-    <t>怪物类型
-0:代表无敌墙体
-1:代表游戏城墙
-2:代表游戏的主角
-3:代表游戏中的敌人
-4:代表游戏中的技能</t>
-  </si>
-  <si>
     <t>怪物描述</t>
+  </si>
+  <si>
+    <t>砖块类型
+0:无类型，仅仅作为必选项填入
+1:勇士碰撞器
+2:梦魇类型碰撞器
+3:障碍物类型
+4:范围探测类型
+7:回复类型碰撞器
+8:房间类型碰撞器
+9:建筑物类型
+11:移动类型
+12:世界类型</t>
+  </si>
+  <si>
+    <t>TempType(1):
+1:基础勇士碰撞器类型。
+TempType(2):
+1:通用梦魇碰撞器类型。
+TempType(3):
+1:基础障碍物。
+TempType(4):
+1:平民检测器
+2:梦魇检测器
+3:视野检测器
+4:房间检测器
+5:英雄阵营探测器
+TempType(7 ):
+1:回复生命用    
+2:回复护盾用
+3:回复金钱用
+4:回复练气丹用
+TempType(8):
+1:通用房间碰撞器
+TempType(9):
+1:立即计算障碍的
+2:传感器类型，不会计算障碍的
+3:动态计算障碍的
+TempType(10):
+1:对应游戏中的子弹对象
+TempType(11):
+1:线速度移动器
+2:寻路移动器
+TempType(12):
+1:通用世界类型</t>
   </si>
   <si>
     <t>物体形状
@@ -81,6 +142,27 @@
     <t>墙体尺寸</t>
   </si>
   <si>
+    <t>是否拥有贴图</t>
+  </si>
+  <si>
+    <t>贴图的旋转角度</t>
+  </si>
+  <si>
+    <t>贴图图片</t>
+  </si>
+  <si>
+    <t>是否拥有Spine小精灵</t>
+  </si>
+  <si>
+    <t>Spine路径</t>
+  </si>
+  <si>
+    <t>动画名称</t>
+  </si>
+  <si>
+    <t>Spine缩放</t>
+  </si>
+  <si>
     <t>类型</t>
   </si>
   <si>
@@ -93,6 +175,9 @@
     <t>Object{Width:Number,Height:Number}</t>
   </si>
   <si>
+    <t>Boolean</t>
+  </si>
+  <si>
     <t>客户端类型</t>
   </si>
   <si>
@@ -102,73 +187,484 @@
     <t>T</t>
   </si>
   <si>
-    <t>墙体.碰撞器</t>
-  </si>
-  <si>
-    <t>墙体会使用本ID</t>
-  </si>
-  <si>
-    <t>{Width:2.5,Height:0.05}</t>
-  </si>
-  <si>
-    <t>城墙.碰撞器</t>
-  </si>
-  <si>
-    <t>老旧破落的城墙，却守护者城内百姓的安宁</t>
-  </si>
-  <si>
-    <t>{Width:0.05,Height:5}</t>
-  </si>
-  <si>
-    <t>勇士.碰撞器</t>
-  </si>
-  <si>
-    <t>只会一些基本功，但是却已经有着守护一方宁静的普通人</t>
-  </si>
-  <si>
-    <t>{Width:5,Height:0.02}</t>
-  </si>
-  <si>
-    <t>小杂兵.碰撞器</t>
-  </si>
-  <si>
-    <t>爱做小破坏的一帮坏小子，很是令人讨厌</t>
-  </si>
-  <si>
-    <t>{Width:0.2,Height:0.2}</t>
-  </si>
-  <si>
-    <t>叠罗汉_8.碰撞器</t>
-  </si>
-  <si>
-    <t>怕见人的捣蛋鬼，他们将自己隐藏在床单下，露出个眼睛把坏事干</t>
-  </si>
-  <si>
-    <t>叠罗汉_4.碰撞器</t>
-  </si>
-  <si>
-    <t>{Width:0.4,Height:0.4}</t>
-  </si>
-  <si>
-    <t>叠罗汉_2.碰撞器</t>
-  </si>
-  <si>
-    <t>{Width:0.3,Height:0.3}</t>
-  </si>
-  <si>
-    <t>小屁孩.碰撞器</t>
-  </si>
-  <si>
-    <t>小小年纪不学好，该打</t>
-  </si>
-  <si>
-    <t>普通攻击.碰撞器</t>
-  </si>
-  <si>
-    <t>普通攻击的范围</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>37*37世界碰撞器</t>
+  </si>
+  <si>
+    <t>世界碰撞器，用于检测有物体离开世界场景，以达到销毁物体的目的</t>
+  </si>
+  <si>
+    <t>{Width:18.5,Height:18.5}</t>
+  </si>
+  <si>
+    <t>Floor_1</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>5*7房间区域碰撞器</t>
+  </si>
+  <si>
+    <t>5*7房间类型碰撞器</t>
+  </si>
+  <si>
+    <t>{Width:2.5,Height:3.5}</t>
+  </si>
+  <si>
+    <t>5*7房间视野检测器</t>
+  </si>
+  <si>
+    <t>世界碰撞器</t>
+  </si>
+  <si>
+    <t>{Width:50.5,Height:50.5}</t>
+  </si>
+  <si>
+    <t>房间碰撞器</t>
+  </si>
+  <si>
+    <t>房间碰撞器，用于对房间所接触的物体，施加Buff</t>
+  </si>
+  <si>
+    <t>{Width:5.5,Height:5.5}</t>
+  </si>
+  <si>
+    <t>房间视野检测器</t>
+  </si>
+  <si>
+    <t>房间的视野检测器</t>
+  </si>
+  <si>
+    <t>建筑物容器</t>
+  </si>
+  <si>
+    <t>用于容纳建筑物</t>
+  </si>
+  <si>
+    <t>{Width:0.5,Height:0.5}</t>
+  </si>
+  <si>
+    <t>IdleImg</t>
+  </si>
+  <si>
+    <t>地砖.左上</t>
+  </si>
+  <si>
+    <t>左上角的地砖</t>
+  </si>
+  <si>
+    <t>WallAngle</t>
+  </si>
+  <si>
+    <t>地砖.左下</t>
+  </si>
+  <si>
+    <t>左下角的地砖</t>
+  </si>
+  <si>
+    <t>地砖.右上</t>
+  </si>
+  <si>
+    <t>右上角的地砖</t>
+  </si>
+  <si>
+    <t>地砖.右下</t>
+  </si>
+  <si>
+    <t>右下角的地砖</t>
+  </si>
+  <si>
+    <t>地砖.上横</t>
+  </si>
+  <si>
+    <t>纹路为横的地砖</t>
+  </si>
+  <si>
+    <t>WallLine_Top</t>
+  </si>
+  <si>
+    <t>地砖.下横</t>
+  </si>
+  <si>
+    <t>WallLine_Bottom</t>
+  </si>
+  <si>
+    <t>地砖.左竖</t>
+  </si>
+  <si>
+    <t>WallLine_Left</t>
+  </si>
+  <si>
+    <t>地砖.右竖</t>
+  </si>
+  <si>
+    <t>WallLine_Right</t>
+  </si>
+  <si>
+    <t>炮台炮身</t>
+  </si>
+  <si>
+    <t>炮台炮身碰撞器</t>
+  </si>
+  <si>
+    <t>Pedesta_1</t>
+  </si>
+  <si>
+    <t>范围检测器</t>
+  </si>
+  <si>
+    <t>范围检测用，向刚体动态报告敌人的数据信息</t>
+  </si>
+  <si>
+    <t>血量回复检测器</t>
+  </si>
+  <si>
+    <t>血量回复检测用，可以每秒钟回复角色数据信息</t>
+  </si>
+  <si>
+    <t>{Width:0,Height:0}</t>
+  </si>
+  <si>
+    <t>护盾回复检测器</t>
+  </si>
+  <si>
+    <t>护盾回复检测用，可以每秒钟回复角色数据信息</t>
+  </si>
+  <si>
+    <t>金币回复检测器</t>
+  </si>
+  <si>
+    <t>金币回复检测用，可以每秒钟回复角色数据信息</t>
+  </si>
+  <si>
+    <t>练气丹回复检测器</t>
+  </si>
+  <si>
+    <t>练气丹回复检测用，可以每秒钟回复角色数据信息</t>
+  </si>
+  <si>
+    <t>移动方向控制器</t>
+  </si>
+  <si>
+    <t>视野触发器</t>
+  </si>
+  <si>
+    <t>视野触发器，用于监听视野内的</t>
+  </si>
+  <si>
+    <t>{Width:5,Height:5}</t>
+  </si>
+  <si>
+    <t>梦魇.碰撞器</t>
+  </si>
+  <si>
+    <t>梦魇碰撞器</t>
+  </si>
+  <si>
+    <t>Door_1</t>
+  </si>
+  <si>
+    <t>jiangshi3</t>
+  </si>
+  <si>
+    <t>walk</t>
+  </si>
+  <si>
+    <t>技能通用范围碰撞器</t>
+  </si>
+  <si>
+    <t>通用技能碰撞器</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>勇士.碰撞器_2</t>
+  </si>
+  <si>
+    <t>勇士类型玩家形象2</t>
+  </si>
+  <si>
+    <t>daoshi1</t>
+  </si>
+  <si>
+    <t>勇士范围探测器</t>
+  </si>
+  <si>
+    <t>探测指定区域的勇士信息</t>
+  </si>
+  <si>
+    <t>{Width:10,Height:5}</t>
+  </si>
+  <si>
+    <t>NULLL</t>
+  </si>
+  <si>
+    <t>梦魇范围探测器</t>
+  </si>
+  <si>
+    <t>探测指定区域的梦魇信息</t>
+  </si>
+  <si>
+    <t>视野范围探测器</t>
+  </si>
+  <si>
+    <t>探测指定区域的视野信息</t>
+  </si>
+  <si>
+    <t>房间范围探测器</t>
+  </si>
+  <si>
+    <t>探测指定区域的房间信息</t>
+  </si>
+  <si>
+    <t>梦魇的小子弹</t>
+  </si>
+  <si>
+    <t>子弹的身体</t>
+  </si>
+  <si>
+    <t>梦魇的小子弹.英雄检测器</t>
+  </si>
+  <si>
+    <t>梦魇的子弹会对触碰到的敌人造成根据梦魇属性的伤害</t>
+  </si>
+  <si>
+    <t>路径移动器</t>
+  </si>
+  <si>
+    <t>当一个人物拥有他后，可以随机行走的能力</t>
+  </si>
+  <si>
+    <t>方向移动器</t>
+  </si>
+  <si>
+    <t>可操作一个玩家</t>
+  </si>
+  <si>
+    <t>炮塔的梦魇检测器</t>
+  </si>
+  <si>
+    <t>碰撞到梦魇后，对梦魇造成伤害</t>
+  </si>
+  <si>
+    <t>英雄阵营检测器</t>
+  </si>
+  <si>
+    <t>检测地方阵营信息</t>
+  </si>
+  <si>
+    <t>9*9房间区域碰撞器</t>
+  </si>
+  <si>
+    <t>9*9房间类型碰撞器</t>
+  </si>
+  <si>
+    <t>{Width:4.5,Height:4.5}</t>
+  </si>
+  <si>
+    <t>9*9房间视野检测器</t>
+  </si>
+  <si>
+    <t>内地砖.左上</t>
+  </si>
+  <si>
+    <t>内角砖块，用于更好的描述和体现地图</t>
+  </si>
+  <si>
+    <t>WallBottomAngle</t>
+  </si>
+  <si>
+    <t>内地砖.左下</t>
+  </si>
+  <si>
+    <t>内地砖.右上</t>
+  </si>
+  <si>
+    <t>内地砖.右下</t>
+  </si>
+  <si>
+    <t>7*7房间区域碰撞器</t>
+  </si>
+  <si>
+    <t>7*7房间类型碰撞器</t>
+  </si>
+  <si>
+    <t>{Width:3.5,Height:3.5}</t>
+  </si>
+  <si>
+    <t>7*7房间视野检测器</t>
+  </si>
+  <si>
+    <t>7*9房间区域碰撞器</t>
+  </si>
+  <si>
+    <t>7*9房间类型碰撞器</t>
+  </si>
+  <si>
+    <t>{Width:3.5,Height:4.5}</t>
+  </si>
+  <si>
+    <t>7*9房间视野检测器</t>
+  </si>
+  <si>
+    <t>11*3房间区域碰撞器</t>
+  </si>
+  <si>
+    <t>11*3房间类型碰撞器</t>
+  </si>
+  <si>
+    <t>{Width:5.5,Height:1.5}</t>
+  </si>
+  <si>
+    <t>11*3房间视野检测器</t>
+  </si>
+  <si>
+    <t>9*7房间区域碰撞器</t>
+  </si>
+  <si>
+    <t>9*7房间类型碰撞器</t>
+  </si>
+  <si>
+    <t>{Width:4.5,Height:3.5}</t>
+  </si>
+  <si>
+    <t>9*7房间视野检测器</t>
+  </si>
+  <si>
+    <t>房门纵移-&gt;左边</t>
+  </si>
+  <si>
+    <t>纵向开门的房门，图片开口向左</t>
+  </si>
+  <si>
+    <t>Door_5</t>
+  </si>
+  <si>
+    <t>房门纵移-&gt;右边</t>
+  </si>
+  <si>
+    <t>纵向开门的房门，图片开口向右</t>
+  </si>
+  <si>
+    <t>房门横移-&gt;上边</t>
+  </si>
+  <si>
+    <t>纵向开门的房门，图片开口向上</t>
+  </si>
+  <si>
+    <t>房门横移-&gt;下边</t>
+  </si>
+  <si>
+    <t>纵向开门的房门，图片开口向下</t>
+  </si>
+  <si>
+    <t>房门触发器</t>
+  </si>
+  <si>
+    <t>房门用于控制房门启停</t>
+  </si>
+  <si>
+    <t>床</t>
+  </si>
+  <si>
+    <t>床体碰撞器</t>
+  </si>
+  <si>
+    <t>Bed_1</t>
+  </si>
+  <si>
+    <t>床体触发器</t>
+  </si>
+  <si>
+    <t>{Width:0.75,Height:0.75}</t>
+  </si>
+  <si>
+    <t>炮塔的子弹</t>
+  </si>
+  <si>
+    <t>zidan</t>
+  </si>
+  <si>
+    <t>视窗范围探测器</t>
+  </si>
+  <si>
+    <t>用于屏幕单位的绘制工作（不再一次性绘制过多的节点单元）</t>
+  </si>
+  <si>
+    <t>{Width:4,Height:9}</t>
+  </si>
+  <si>
+    <t>世界范围检测器，用于检测世界范围下的所有角色信息</t>
+  </si>
+  <si>
+    <t>地图边界上地砖</t>
+  </si>
+  <si>
+    <t>{Width:17.5,Height:0.5}</t>
+  </si>
+  <si>
+    <t>地图边界下地砖</t>
+  </si>
+  <si>
+    <t>地图边界左地砖</t>
+  </si>
+  <si>
+    <t>{Width:0.5,Height:17.5}</t>
+  </si>
+  <si>
+    <t>地图边界右地砖</t>
+  </si>
+  <si>
+    <t>地砖.上横(5*1)</t>
+  </si>
+  <si>
+    <t>{Width:2.5,Height:0.5}</t>
+  </si>
+  <si>
+    <t>地砖.下横(3*1)</t>
+  </si>
+  <si>
+    <t>{Width:1.5,Height:0.5}</t>
+  </si>
+  <si>
+    <t>地砖.左竖(1*5)</t>
+  </si>
+  <si>
+    <t>{Width:0.5,Height:2.5}</t>
+  </si>
+  <si>
+    <t>地砖.右竖(1*7)</t>
+  </si>
+  <si>
+    <t>{Width:0.5,Height:3.5}</t>
+  </si>
+  <si>
+    <t>地砖.右竖(1*3)</t>
+  </si>
+  <si>
+    <t>{Width:0.5,Height:1.5}</t>
+  </si>
+  <si>
+    <t>地砖.左竖(1*3)</t>
+  </si>
+  <si>
+    <t>地砖.左竖(1*7)</t>
+  </si>
+  <si>
+    <t>地砖.下横(5*1)</t>
+  </si>
+  <si>
+    <t>地砖.下横(9*1)</t>
+  </si>
+  <si>
+    <t>{Width:4.5,Height:0.5}</t>
+  </si>
+  <si>
+    <t>地砖.下横(7*1)</t>
+  </si>
+  <si>
+    <t>{Width:3.5,Height:0.5}</t>
   </si>
 </sst>
 </file>
@@ -181,13 +677,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -660,16 +1162,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,123 +1177,123 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -805,6 +1304,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1117,364 +1619,4025 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="L80" sqref="L80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="12.35" customWidth="1"/>
-    <col min="3" max="3" width="9.55833333333333" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
-    <col min="5" max="5" width="60.875" customWidth="1"/>
-    <col min="6" max="7" width="9.55833333333333" customWidth="1"/>
-    <col min="8" max="8" width="28.8166666666667" customWidth="1"/>
+    <col min="3" max="3" width="25.2916666666667" customWidth="1"/>
+    <col min="4" max="4" width="60.875" customWidth="1"/>
+    <col min="5" max="6" width="27" customWidth="1"/>
+    <col min="7" max="8" width="9.55833333333333" customWidth="1"/>
+    <col min="9" max="9" width="28.8166666666667" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="21.4583333333333" customWidth="1"/>
+    <col min="13" max="13" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="95" customHeight="1" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="405" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="1">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>270</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:16">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>180</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:16">
+      <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="C14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:16">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="C15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>90</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:16">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:16">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
+      <c r="C17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:16">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:16">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="C19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:16">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>90</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1">
         <v>19</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="1">
+        <v>9</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1">
         <v>20</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A5" s="4" t="s">
+      <c r="I22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1">
         <v>21</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="C23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="1">
+        <v>7</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="1">
         <v>22</v>
       </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="C24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="1">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="1">
         <v>23</v>
       </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="1">
+        <v>7</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="C26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="1">
+        <v>7</v>
+      </c>
+      <c r="F26" s="1">
+        <v>4</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:16">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="1">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="1">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="30" ht="14" customHeight="1" spans="1:16">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="1">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" ht="14" customHeight="1" spans="1:16">
+      <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="1">
+        <v>31</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="1">
+        <v>33</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1">
+        <v>34</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="1">
+        <v>4</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="1">
+        <v>35</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="1">
+        <v>4</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>5</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="1">
+        <v>36</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1">
+        <v>37</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="1">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1">
+        <v>4</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1">
+        <v>38</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="1">
+        <v>10</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1">
+        <v>39</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="1">
+        <v>4</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>41</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="1">
+        <v>11</v>
+      </c>
+      <c r="F39" s="1">
         <v>2</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>42</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="1">
+        <v>11</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="1">
+        <v>4</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="1">
+        <v>43</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="1">
+        <v>4</v>
+      </c>
+      <c r="F42" s="1">
+        <v>5</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" ht="17" customHeight="1" spans="1:16">
+      <c r="A43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" s="1">
+        <v>8</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" spans="1:16">
+      <c r="A44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="1">
+        <v>46</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="1">
+        <v>4</v>
+      </c>
+      <c r="F44" s="1">
+        <v>3</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" spans="1:16">
+      <c r="A45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="1">
+        <v>49</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" s="1">
+        <v>3</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45" s="1">
+        <v>90</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" spans="1:16">
+      <c r="A46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="1">
+        <v>50</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" s="1">
+        <v>3</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" spans="1:16">
+      <c r="A47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="1">
+        <v>51</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" s="1">
+        <v>3</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K47" s="1">
+        <v>180</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25" spans="1:16">
+      <c r="A48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="1">
+        <v>52</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" s="1">
+        <v>3</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48" s="1">
+        <v>270</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" ht="17" customHeight="1" spans="1:16">
+      <c r="A49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="1">
+        <v>53</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="1">
+        <v>8</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" spans="1:16">
+      <c r="A50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="1">
+        <v>54</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" s="1">
+        <v>4</v>
+      </c>
+      <c r="F50" s="1">
+        <v>3</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" ht="17" customHeight="1" spans="1:16">
+      <c r="A51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="1">
+        <v>55</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="1">
+        <v>8</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25" spans="1:16">
+      <c r="A52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="1">
+        <v>56</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" s="1">
+        <v>4</v>
+      </c>
+      <c r="F52" s="1">
+        <v>3</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" ht="17" customHeight="1" spans="1:16">
+      <c r="A53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="1">
+        <v>57</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" s="1">
+        <v>8</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25" spans="1:16">
+      <c r="A54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="1">
+        <v>58</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" s="1">
+        <v>4</v>
+      </c>
+      <c r="F54" s="1">
+        <v>3</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" ht="17" customHeight="1" spans="1:16">
+      <c r="A55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="1">
+        <v>59</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55" s="1">
+        <v>8</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25" spans="1:16">
+      <c r="A56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="1">
+        <v>60</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" s="1">
+        <v>4</v>
+      </c>
+      <c r="F56" s="1">
+        <v>3</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" spans="1:16">
+      <c r="A57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="1">
+        <v>61</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E57" s="1">
+        <v>9</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J57" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K57" s="1">
+        <v>90</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="M57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" spans="1:16">
+      <c r="A58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="1">
+        <v>62</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" s="1">
+        <v>9</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J58" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K58" s="1">
+        <v>270</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="M58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" spans="1:16">
+      <c r="A59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="1">
+        <v>63</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E59" s="1">
+        <v>9</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J59" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K59" s="1">
+        <v>180</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="M59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25" spans="1:16">
+      <c r="A60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="1">
+        <v>64</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E60" s="1">
+        <v>9</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J60" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="M60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="1">
+        <v>65</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E61" s="1">
+        <v>4</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="1">
+        <v>66</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E62" s="1">
+        <v>9</v>
+      </c>
+      <c r="F62" s="1">
+        <v>2</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="1">
+        <v>67</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E63" s="1">
+        <v>4</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="1">
+        <v>68</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E64" s="1">
+        <v>10</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+      <c r="H64" s="1">
         <v>0.2</v>
       </c>
-      <c r="H7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="I64" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M64" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P64" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65">
+        <v>69</v>
+      </c>
+      <c r="C65" t="s">
+        <v>172</v>
+      </c>
+      <c r="D65" t="s">
+        <v>173</v>
+      </c>
+      <c r="E65">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="F65">
         <v>3</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J65" t="b">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65" t="s">
+        <v>102</v>
+      </c>
+      <c r="M65" t="b">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
+        <v>43</v>
+      </c>
+      <c r="O65" t="s">
+        <v>43</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25" spans="1:16">
+      <c r="A66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="1">
+        <v>70</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E66" s="1">
+        <v>4</v>
+      </c>
+      <c r="F66" s="1">
         <v>3</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J66" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25" spans="1:16">
+      <c r="A67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="1">
+        <v>71</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E67" s="1">
         <v>3</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J67" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25" spans="1:16">
+      <c r="A68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68">
+        <v>72</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E68" s="1">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J68" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M68" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25" spans="1:16">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69">
+        <v>73</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E69" s="1">
         <v>3</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="H12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5">
-      <c r="E18" t="s">
-        <v>44</v>
+      <c r="F69" s="1">
+        <v>1</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J69" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25" spans="1:16">
+      <c r="A70" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70">
+        <v>74</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E70" s="1">
+        <v>3</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J70" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25" spans="1:16">
+      <c r="A71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" s="1">
+        <v>75</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E71" s="1">
+        <v>3</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J71" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25" spans="1:16">
+      <c r="A72" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72">
+        <v>76</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E72" s="1">
+        <v>3</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J72" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25" spans="1:16">
+      <c r="A73" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73">
+        <v>77</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E73" s="1">
+        <v>3</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J73" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25" spans="1:16">
+      <c r="A74" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74">
+        <v>78</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E74" s="1">
+        <v>3</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J74" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25" spans="1:16">
+      <c r="A75" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75">
+        <v>79</v>
+      </c>
+      <c r="C75" t="s">
+        <v>190</v>
+      </c>
+      <c r="D75" t="s">
+        <v>190</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0.5</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J75" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M75" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25" spans="1:16">
+      <c r="A76" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76">
+        <v>80</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E76" s="1">
+        <v>3</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J76" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M76" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25" spans="1:16">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77">
+        <v>81</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E77" s="1">
+        <v>3</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J77" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M77" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25" spans="1:16">
+      <c r="A78" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78">
+        <v>82</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E78" s="1">
+        <v>3</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J78" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M78" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25" spans="1:16">
+      <c r="A79" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79">
+        <v>83</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E79" s="1">
+        <v>3</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J79" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K79" s="1">
+        <v>0</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M79" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25" spans="1:16">
+      <c r="A80" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80">
+        <v>84</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E80" s="1">
+        <v>3</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J80" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K80" s="1">
+        <v>0</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M80" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P80" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
